--- a/test_list.xlsx
+++ b/test_list.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C66B1622-3205-44AE-9A2B-540605F38338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{35345599-5CEE-4B35-8840-9B82C7B2079E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="11">
   <si>
     <t>Номер за столом</t>
   </si>
@@ -53,12 +47,102 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Тест на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>трех</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> компьютерах:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Тест на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>четырех</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> компьютерах:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Тест на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>пяти</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> компьютерах:</t>
+    </r>
+  </si>
+  <si>
+    <t>Тест на двух компьютерах:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +154,16 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -89,11 +183,106 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -102,12 +291,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -417,828 +648,749 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE8AB58-D963-476A-8FC7-4B35AF5F0046}">
-  <dimension ref="A1:L229"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="9" max="10" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="15" width="17.6640625" customWidth="1"/>
+    <col min="17" max="17" width="17.77734375" customWidth="1"/>
+    <col min="18" max="19" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="D3" s="1"/>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <v>2</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="H4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="F5" s="5">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
         <v>0</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="16">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>1</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="13">
         <v>2</v>
       </c>
-      <c r="B8" s="2">
+      <c r="F9" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="G9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>0</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="16">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="15">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="H11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="7">
         <v>1</v>
       </c>
-      <c r="B11" s="2">
+      <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="G12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="H12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>0</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="13">
         <v>2</v>
       </c>
-      <c r="B12" s="2">
+      <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="G13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>4</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="15">
         <v>0</v>
       </c>
-      <c r="B15" s="2">
+      <c r="F16" s="16">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="G16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="H16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>0</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="2">
+      <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="G17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="H17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="13">
         <v>2</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="F18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="G18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
         <v>0</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="16">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="D20" s="1"/>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
         <v>1</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="G20" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="D21" s="1"/>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D22" s="1"/>
+      <c r="E22" s="13">
         <v>2</v>
       </c>
-      <c r="B21" s="2">
+      <c r="F22" s="5">
         <v>0</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="G22" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D23" s="1"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D24" s="1"/>
+      <c r="E24" s="15">
         <v>0</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="F24" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="G24" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="H24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D25" s="1"/>
+      <c r="E25" s="7">
         <v>1</v>
       </c>
-      <c r="B24" s="2">
+      <c r="F25" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="G25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="H25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D26" s="1"/>
+      <c r="E26" s="13">
         <v>2</v>
       </c>
-      <c r="B25" s="2">
+      <c r="F26" s="5">
         <v>0</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="G26" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D28" s="1"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D29" s="1"/>
+      <c r="E29" s="15">
         <v>0</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="F29" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="G29" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="H29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D30" s="1"/>
+      <c r="E30" s="7">
         <v>1</v>
       </c>
-      <c r="B29" s="2">
+      <c r="F30" s="3">
         <v>0</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="G30" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="H30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D31" s="1"/>
+      <c r="E31" s="13">
         <v>2</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="F31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="G31" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D32" s="1"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D33" s="1"/>
+      <c r="E33" s="15">
         <v>0</v>
       </c>
-      <c r="B32" s="2">
+      <c r="F33" s="16">
         <v>0</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="G33" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="H33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
+      <c r="E34" s="7">
         <v>1</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="F34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="G34" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="H34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+      <c r="E35" s="13">
         <v>2</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="F35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="G35" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="15">
         <v>0</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="F37" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="G37" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="H37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D38" s="1"/>
+      <c r="E38" s="7">
         <v>1</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="G38" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="H38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D39" s="1"/>
+      <c r="E39" s="13">
         <v>2</v>
       </c>
-      <c r="B38" s="2">
+      <c r="F39" s="5">
         <v>0</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="G39" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D41" s="1"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D42" s="1"/>
+      <c r="E42" s="15">
         <v>0</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="F42" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="G42" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="H42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D43" s="1"/>
+      <c r="E43" s="7">
         <v>1</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="F43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="G43" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="H43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D44" s="1"/>
+      <c r="E44" s="13">
         <v>2</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="F44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="G44" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1252,7 +1404,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1266,7 +1418,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1280,7 +1432,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1294,7 +1446,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1308,7 +1460,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1322,7 +1474,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1336,7 +1488,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1350,7 +1502,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1364,7 +1516,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1378,7 +1530,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1392,7 +1544,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1406,7 +1558,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1420,7 +1572,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1434,7 +1586,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1448,7 +1600,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1462,7 +1614,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1476,7 +1628,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1490,7 +1642,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1504,7 +1656,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1518,7 +1670,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1532,7 +1684,7 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1546,7 +1698,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1560,7 +1712,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1574,7 +1726,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1588,7 +1740,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1602,7 +1754,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1616,7 +1768,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1630,7 +1782,7 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1644,7 +1796,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1658,7 +1810,7 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1672,7 +1824,7 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1686,7 +1838,7 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1700,7 +1852,7 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1714,7 +1866,7 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1728,7 +1880,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1742,7 +1894,7 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1756,7 +1908,7 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1770,7 +1922,7 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1784,7 +1936,7 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1798,7 +1950,7 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1812,7 +1964,7 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1826,7 +1978,7 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1840,7 +1992,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1854,7 +2006,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1868,7 +2020,7 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1882,7 +2034,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1896,7 +2048,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1910,7 +2062,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1924,7 +2076,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1938,7 +2090,7 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1952,7 +2104,7 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1966,7 +2118,7 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1980,7 +2132,7 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1994,7 +2146,7 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2008,7 +2160,7 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2022,7 +2174,7 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2036,7 +2188,7 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2050,7 +2202,7 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2064,7 +2216,7 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2078,7 +2230,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2092,7 +2244,7 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2106,7 +2258,7 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2120,7 +2272,7 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2134,7 +2286,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2148,7 +2300,7 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2162,7 +2314,7 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2176,7 +2328,7 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2190,7 +2342,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2204,7 +2356,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2218,7 +2370,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2232,7 +2384,7 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2246,7 +2398,7 @@
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2260,7 +2412,7 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2274,7 +2426,7 @@
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -2288,7 +2440,7 @@
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2302,7 +2454,7 @@
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2316,7 +2468,7 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2330,7 +2482,7 @@
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2344,7 +2496,7 @@
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2358,7 +2510,7 @@
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2372,7 +2524,7 @@
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2386,7 +2538,7 @@
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2400,7 +2552,7 @@
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2414,7 +2566,7 @@
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2428,7 +2580,7 @@
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2442,7 +2594,7 @@
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2456,7 +2608,7 @@
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2470,7 +2622,7 @@
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2484,7 +2636,7 @@
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2498,7 +2650,7 @@
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2512,7 +2664,7 @@
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2526,7 +2678,7 @@
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2540,7 +2692,7 @@
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2554,7 +2706,7 @@
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2568,7 +2720,7 @@
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2582,7 +2734,7 @@
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2596,7 +2748,7 @@
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -2610,7 +2762,7 @@
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -2624,7 +2776,7 @@
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2638,7 +2790,7 @@
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -2652,7 +2804,7 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -2666,7 +2818,7 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -2680,7 +2832,7 @@
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -2694,7 +2846,7 @@
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -2708,7 +2860,7 @@
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -2722,7 +2874,7 @@
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -2736,7 +2888,7 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -2750,7 +2902,7 @@
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -2764,7 +2916,7 @@
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -2778,7 +2930,7 @@
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -2792,7 +2944,7 @@
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -2806,7 +2958,7 @@
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -2820,7 +2972,7 @@
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -2834,7 +2986,7 @@
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -2848,7 +3000,7 @@
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -2862,7 +3014,7 @@
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -2876,7 +3028,7 @@
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -2890,7 +3042,7 @@
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -2904,7 +3056,7 @@
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -2918,7 +3070,7 @@
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -2932,7 +3084,7 @@
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -2946,7 +3098,7 @@
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -2960,7 +3112,7 @@
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -2974,7 +3126,7 @@
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -2988,7 +3140,7 @@
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -3002,7 +3154,7 @@
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -3016,7 +3168,7 @@
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -3030,7 +3182,7 @@
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -3044,7 +3196,7 @@
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -3058,7 +3210,7 @@
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -3072,7 +3224,7 @@
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -3086,7 +3238,7 @@
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -3100,7 +3252,7 @@
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -3114,7 +3266,7 @@
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -3128,7 +3280,7 @@
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -3142,7 +3294,7 @@
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -3156,7 +3308,7 @@
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -3170,7 +3322,7 @@
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -3184,7 +3336,7 @@
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -3198,7 +3350,7 @@
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -3212,7 +3364,7 @@
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -3226,7 +3378,7 @@
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -3240,7 +3392,7 @@
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -3254,7 +3406,7 @@
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -3268,7 +3420,7 @@
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -3282,7 +3434,7 @@
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -3296,7 +3448,7 @@
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -3310,7 +3462,7 @@
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -3324,7 +3476,7 @@
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -3338,7 +3490,7 @@
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -3352,7 +3504,7 @@
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -3366,7 +3518,7 @@
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -3380,7 +3532,7 @@
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -3394,7 +3546,7 @@
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -3408,7 +3560,7 @@
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -3422,7 +3574,7 @@
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -3436,7 +3588,7 @@
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -3450,7 +3602,7 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -3464,7 +3616,7 @@
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -3478,7 +3630,7 @@
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -3492,7 +3644,7 @@
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -3506,7 +3658,7 @@
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -3520,7 +3672,7 @@
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -3534,7 +3686,7 @@
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -3548,7 +3700,7 @@
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -3562,7 +3714,7 @@
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -3576,7 +3728,7 @@
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -3590,7 +3742,7 @@
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -3604,7 +3756,7 @@
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -3618,7 +3770,7 @@
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -3632,7 +3784,7 @@
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -3646,7 +3798,7 @@
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -3660,7 +3812,7 @@
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -3674,7 +3826,7 @@
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -3688,7 +3840,7 @@
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -3702,7 +3854,7 @@
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -3716,7 +3868,7 @@
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -3730,7 +3882,7 @@
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -3744,7 +3896,7 @@
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -3758,7 +3910,7 @@
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -3772,7 +3924,7 @@
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -3786,7 +3938,7 @@
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -3800,7 +3952,7 @@
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -3814,7 +3966,7 @@
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -3829,6 +3981,13 @@
       <c r="L229" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_list.xlsx
+++ b/test_list.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="12">
   <si>
     <t>Номер за столом</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Тест на двух компьютерах:</t>
+  </si>
+  <si>
+    <t>HP</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -659,7 +662,7 @@
   <dimension ref="A1:O229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,6 +769,15 @@
         <v>3</v>
       </c>
       <c r="H3" s="1"/>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -789,6 +801,15 @@
         <v>4</v>
       </c>
       <c r="H4" s="1"/>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>4</v>
+      </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -806,6 +827,15 @@
         <v>5</v>
       </c>
       <c r="H5" s="1"/>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -823,6 +853,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="10"/>
       <c r="H6" s="1"/>
+      <c r="I6" s="13">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -863,6 +902,9 @@
         <v>4</v>
       </c>
       <c r="H8" s="1"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
